--- a/feature-types-AAT_20230609.xlsx
+++ b/feature-types-AAT_20230609.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlg/Documents/Repos/linked-places/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7B77CE0-76A3-CE41-B106-DA7F2D68D238}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D022D26-1F63-914B-822E-26F770C8E2DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="680" windowWidth="26560" windowHeight="16560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2980" yWindow="1680" windowWidth="26560" windowHeight="16560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aat concepts of interest" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="528">
   <si>
     <t>parent</t>
   </si>
@@ -1603,6 +1603,15 @@
   </si>
   <si>
     <t>body of water (natural)</t>
+  </si>
+  <si>
+    <t>tribal area</t>
+  </si>
+  <si>
+    <t>tribal areas</t>
+  </si>
+  <si>
+    <t>Areas inhabited by primarily indigenous tribal peoples. The term is used particularly in India, but may also apply to other areas.</t>
   </si>
 </sst>
 </file>
@@ -2135,11 +2144,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G178"/>
+  <dimension ref="A1:G179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2447,209 +2456,207 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="C16" s="11" t="s">
+      <c r="A16" s="23">
+        <v>300008347</v>
+      </c>
+      <c r="B16" s="23">
+        <v>300387323</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="25" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="23"/>
+      <c r="C17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E17" s="23">
         <v>14</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F17" s="25" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
-        <v>300239103</v>
-      </c>
-      <c r="B17" s="31">
-        <v>300182722</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="22">
-        <v>15</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31">
+        <v>300239103</v>
+      </c>
+      <c r="B18" s="31">
         <v>300182722</v>
       </c>
-      <c r="B18" s="31">
-        <v>300387178</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="23">
-        <v>16</v>
+      <c r="C18" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="22">
+        <v>15</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31">
         <v>300182722</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="31">
+        <v>300387178</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="23">
+        <v>16</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="31">
+        <v>300182722</v>
+      </c>
+      <c r="B20" s="23">
         <v>300387347</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C20" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D20" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E20" s="22">
         <v>17</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F20" s="25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="11" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D21" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E21" s="23">
         <v>18</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F21" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31">
+    <row r="22" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="31">
         <v>300056006</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B22" s="31">
         <v>300387616</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C22" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D22" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E22" s="22">
         <v>19</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F22" s="30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="23">
         <v>300056006</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B23" s="26">
         <v>300386114</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E23" s="23">
         <v>20</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F23" s="25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="23">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="23">
         <v>300261086</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D24" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E24" s="22">
         <v>21</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F24" s="25" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
-        <v>300261086</v>
-      </c>
-      <c r="B24" s="23">
-        <v>300232420</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="23">
-        <v>22</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
+        <v>300261086</v>
+      </c>
+      <c r="B25" s="23">
         <v>300232420</v>
       </c>
-      <c r="B25" s="23">
-        <v>300128207</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="22">
-        <v>23</v>
+      <c r="C25" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="23">
+        <v>22</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
+        <v>300232420</v>
+      </c>
+      <c r="B26" s="23">
         <v>300128207</v>
       </c>
-      <c r="B26" s="23">
-        <v>300403959</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="23">
-        <v>24</v>
+      <c r="C26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="22">
+        <v>23</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -2657,39 +2664,39 @@
         <v>300128207</v>
       </c>
       <c r="B27" s="23">
-        <v>300387062</v>
+        <v>300403959</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="22">
-        <v>25</v>
+        <v>73</v>
+      </c>
+      <c r="E27" s="23">
+        <v>24</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
-        <v>300232420</v>
+        <v>300128207</v>
       </c>
       <c r="B28" s="23">
-        <v>300387506</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="23">
-        <v>26</v>
+        <v>300387062</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="22">
+        <v>25</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2697,19 +2704,19 @@
         <v>300232420</v>
       </c>
       <c r="B29" s="23">
-        <v>300128214</v>
+        <v>300387506</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="22">
-        <v>27</v>
+        <v>78</v>
+      </c>
+      <c r="E29" s="23">
+        <v>26</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2717,59 +2724,59 @@
         <v>300232420</v>
       </c>
       <c r="B30" s="23">
-        <v>300417385</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="23">
-        <v>28</v>
+        <v>300128214</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="22">
+        <v>27</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
-        <v>300261086</v>
+        <v>300232420</v>
       </c>
       <c r="B31" s="23">
-        <v>300235114</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="22">
-        <v>29</v>
+        <v>300417385</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="23">
+        <v>28</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="23">
+        <v>300261086</v>
+      </c>
+      <c r="B32" s="23">
         <v>300235114</v>
       </c>
-      <c r="B32" s="23">
-        <v>300387137</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="23">
-        <v>30</v>
+      <c r="C32" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="22">
+        <v>29</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -2777,39 +2784,39 @@
         <v>300235114</v>
       </c>
       <c r="B33" s="23">
-        <v>300235118</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="22">
-        <v>31</v>
+        <v>300387137</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="23">
+        <v>30</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="23">
+        <v>300235114</v>
+      </c>
+      <c r="B34" s="23">
         <v>300235118</v>
       </c>
-      <c r="B34" s="23">
-        <v>300235115</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="23">
-        <v>32</v>
+      <c r="C34" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="22">
+        <v>31</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2817,99 +2824,99 @@
         <v>300235118</v>
       </c>
       <c r="B35" s="23">
-        <v>300412029</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="22">
-        <v>33</v>
+        <v>300235115</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="23">
+        <v>32</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="23">
+        <v>300235118</v>
+      </c>
+      <c r="B36" s="23">
+        <v>300412029</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="22">
+        <v>33</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="23">
         <v>300261086</v>
       </c>
-      <c r="B36" s="29">
+      <c r="B37" s="29">
         <v>300232418</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C37" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D37" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E37" s="23">
         <v>34</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F37" s="26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="29">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="29">
         <v>300232418</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B38" s="27">
         <v>300236157</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C38" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D38" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E38" s="22">
         <v>35</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F38" s="25" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="27">
-        <v>300236157</v>
-      </c>
-      <c r="B38" s="27">
-        <v>300000774</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="23">
-        <v>36</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
         <v>300236157</v>
       </c>
-      <c r="B39" s="23">
-        <v>300000771</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="22">
-        <v>37</v>
+      <c r="B39" s="27">
+        <v>300000774</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="23">
+        <v>36</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -2917,19 +2924,19 @@
         <v>300236157</v>
       </c>
       <c r="B40" s="23">
-        <v>300000776</v>
+        <v>300000771</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E40" s="23">
-        <v>38</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="E40" s="22">
+        <v>37</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2937,39 +2944,39 @@
         <v>300236157</v>
       </c>
       <c r="B41" s="23">
-        <v>300135982</v>
+        <v>300000776</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="22">
-        <v>39</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>117</v>
+        <v>113</v>
+      </c>
+      <c r="E41" s="23">
+        <v>38</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
         <v>300236157</v>
       </c>
-      <c r="B42" s="27">
-        <v>300387107</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E42" s="23">
-        <v>40</v>
+      <c r="B42" s="23">
+        <v>300135982</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="22">
+        <v>39</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -2977,39 +2984,39 @@
         <v>300236157</v>
       </c>
       <c r="B43" s="27">
+        <v>300387107</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="23">
+        <v>40</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="27">
+        <v>300236157</v>
+      </c>
+      <c r="B44" s="27">
         <v>300387130</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E44" s="22">
         <v>41</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F44" s="25" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="23">
-        <v>300261086</v>
-      </c>
-      <c r="B44" s="23">
-        <v>300236153</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" s="23">
-        <v>42</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3017,19 +3024,19 @@
         <v>300261086</v>
       </c>
       <c r="B45" s="23">
-        <v>300235087</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E45" s="22">
-        <v>43</v>
+        <v>300236153</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="23">
+        <v>42</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3037,19 +3044,19 @@
         <v>300261086</v>
       </c>
       <c r="B46" s="23">
-        <v>300264084</v>
+        <v>300235087</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E46" s="23">
-        <v>44</v>
+        <v>128</v>
+      </c>
+      <c r="E46" s="22">
+        <v>43</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3057,19 +3064,19 @@
         <v>300261086</v>
       </c>
       <c r="B47" s="23">
-        <v>300264389</v>
+        <v>300264084</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" s="22">
-        <v>45</v>
+        <v>131</v>
+      </c>
+      <c r="E47" s="23">
+        <v>44</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -3077,19 +3084,19 @@
         <v>300261086</v>
       </c>
       <c r="B48" s="23">
-        <v>300374944</v>
+        <v>300264389</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E48" s="23">
-        <v>46</v>
+        <v>134</v>
+      </c>
+      <c r="E48" s="22">
+        <v>45</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -3097,19 +3104,19 @@
         <v>300261086</v>
       </c>
       <c r="B49" s="23">
-        <v>300235088</v>
+        <v>300374944</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49" s="22">
-        <v>47</v>
+        <v>137</v>
+      </c>
+      <c r="E49" s="23">
+        <v>46</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -3117,19 +3124,19 @@
         <v>300261086</v>
       </c>
       <c r="B50" s="23">
-        <v>300387184</v>
+        <v>300235088</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E50" s="23">
-        <v>48</v>
+        <v>140</v>
+      </c>
+      <c r="E50" s="22">
+        <v>47</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3137,19 +3144,19 @@
         <v>300261086</v>
       </c>
       <c r="B51" s="23">
-        <v>300235095</v>
+        <v>300387184</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E51" s="22">
-        <v>49</v>
+        <v>143</v>
+      </c>
+      <c r="E51" s="23">
+        <v>48</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -3157,17 +3164,19 @@
         <v>300261086</v>
       </c>
       <c r="B52" s="23">
-        <v>300235096</v>
+        <v>300235095</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>466</v>
+        <v>145</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="E52" s="22"/>
+        <v>146</v>
+      </c>
+      <c r="E52" s="22">
+        <v>49</v>
+      </c>
       <c r="F52" s="25" t="s">
-        <v>476</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -3175,19 +3184,17 @@
         <v>300261086</v>
       </c>
       <c r="B53" s="23">
-        <v>300235101</v>
+        <v>300235096</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>148</v>
+        <v>466</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E53" s="23">
-        <v>50</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="E53" s="22"/>
       <c r="F53" s="25" t="s">
-        <v>150</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -3195,19 +3202,19 @@
         <v>300261086</v>
       </c>
       <c r="B54" s="23">
-        <v>300235105</v>
+        <v>300235101</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E54" s="22">
-        <v>51</v>
+        <v>149</v>
+      </c>
+      <c r="E54" s="23">
+        <v>50</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -3215,19 +3222,19 @@
         <v>300261086</v>
       </c>
       <c r="B55" s="23">
-        <v>300235106</v>
+        <v>300235105</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E55" s="23">
-        <v>52</v>
+        <v>152</v>
+      </c>
+      <c r="E55" s="22">
+        <v>51</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -3235,153 +3242,153 @@
         <v>300261086</v>
       </c>
       <c r="B56" s="23">
-        <v>300235099</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E56" s="22">
-        <v>53</v>
+        <v>300235106</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56" s="23">
+        <v>52</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="23">
+        <v>300261086</v>
+      </c>
+      <c r="B57" s="23">
+        <v>300235099</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="22">
+        <v>53</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="23">
         <v>300024979</v>
       </c>
-      <c r="B57" s="27">
+      <c r="B58" s="27">
         <v>300192630</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C58" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D58" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E58" s="22">
         <v>55</v>
       </c>
-      <c r="F57" s="25" t="s">
+      <c r="F58" s="25" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="42">
+    <row r="59" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="42">
         <v>300192630</v>
       </c>
-      <c r="B58" s="42">
+      <c r="B59" s="42">
         <v>300387171</v>
       </c>
-      <c r="C58" s="43" t="s">
+      <c r="C59" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="D58" s="43" t="s">
+      <c r="D59" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E59" s="23">
         <v>56</v>
       </c>
-      <c r="F58" s="30" t="s">
+      <c r="F59" s="30" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="44">
+    <row r="60" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="44">
         <v>300192630</v>
       </c>
-      <c r="B59" s="44">
+      <c r="B60" s="44">
         <v>300386176</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E59" s="45">
+      <c r="E60" s="45">
         <v>57</v>
       </c>
-      <c r="F59" s="46" t="s">
+      <c r="F60" s="46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C60" s="14" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C61" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D60" s="47" t="s">
+      <c r="D61" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E61" s="23">
         <v>58</v>
       </c>
-      <c r="F60" s="25" t="s">
+      <c r="F61" s="25" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="23">
-        <v>300000201</v>
-      </c>
-      <c r="B61" s="27">
-        <v>300000202</v>
-      </c>
-      <c r="C61" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="D61" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="E61" s="22">
-        <v>59</v>
-      </c>
-      <c r="F61" s="25" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="23">
+        <v>300000201</v>
+      </c>
+      <c r="B62" s="27">
         <v>300000202</v>
       </c>
-      <c r="B62" s="23">
-        <v>300000809</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E62" s="23">
-        <v>60</v>
+      <c r="C62" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" s="22">
+        <v>59</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="23">
+        <v>300000202</v>
+      </c>
+      <c r="B63" s="23">
         <v>300000809</v>
       </c>
-      <c r="B63" s="23">
-        <v>300000810</v>
-      </c>
-      <c r="C63" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="D63" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="E63" s="22">
-        <v>61</v>
+      <c r="C63" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E63" s="23">
+        <v>60</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -3389,19 +3396,19 @@
         <v>300000809</v>
       </c>
       <c r="B64" s="23">
-        <v>300387006</v>
+        <v>300000810</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D64" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="E64" s="23">
-        <v>62</v>
+        <v>177</v>
+      </c>
+      <c r="E64" s="22">
+        <v>61</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -3409,19 +3416,19 @@
         <v>300000809</v>
       </c>
       <c r="B65" s="23">
-        <v>300387007</v>
+        <v>300387006</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="E65" s="22">
-        <v>63</v>
+        <v>180</v>
+      </c>
+      <c r="E65" s="23">
+        <v>62</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -3429,19 +3436,19 @@
         <v>300000809</v>
       </c>
       <c r="B66" s="23">
-        <v>300387000</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E66" s="23">
-        <v>64</v>
+        <v>300387007</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="E66" s="22">
+        <v>63</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -3449,19 +3456,19 @@
         <v>300000809</v>
       </c>
       <c r="B67" s="23">
-        <v>300000835</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="E67" s="22">
-        <v>65</v>
+        <v>300387000</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E67" s="23">
+        <v>64</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -3469,19 +3476,19 @@
         <v>300000809</v>
       </c>
       <c r="B68" s="23">
-        <v>300386998</v>
+        <v>300000835</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E68" s="23">
-        <v>66</v>
+        <v>189</v>
+      </c>
+      <c r="E68" s="22">
+        <v>65</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -3489,19 +3496,19 @@
         <v>300000809</v>
       </c>
       <c r="B69" s="23">
-        <v>300263063</v>
+        <v>300386998</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E69" s="22">
-        <v>67</v>
+        <v>192</v>
+      </c>
+      <c r="E69" s="23">
+        <v>66</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -3509,19 +3516,19 @@
         <v>300000809</v>
       </c>
       <c r="B70" s="23">
-        <v>300387268</v>
+        <v>300263063</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E70" s="23">
-        <v>68</v>
+        <v>195</v>
+      </c>
+      <c r="E70" s="22">
+        <v>67</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -3529,39 +3536,39 @@
         <v>300000809</v>
       </c>
       <c r="B71" s="23">
-        <v>300387004</v>
+        <v>300387268</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E71" s="22">
-        <v>69</v>
+        <v>198</v>
+      </c>
+      <c r="E71" s="23">
+        <v>68</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="23">
-        <v>300000202</v>
+        <v>300000809</v>
       </c>
       <c r="B72" s="23">
-        <v>300266755</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E72" s="23">
-        <v>70</v>
+        <v>300387004</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E72" s="22">
+        <v>69</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -3569,19 +3576,19 @@
         <v>300000202</v>
       </c>
       <c r="B73" s="23">
-        <v>300000277</v>
+        <v>300266755</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E73" s="22">
-        <v>71</v>
+        <v>204</v>
+      </c>
+      <c r="E73" s="23">
+        <v>70</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -3589,39 +3596,39 @@
         <v>300000202</v>
       </c>
       <c r="B74" s="23">
-        <v>300164060</v>
+        <v>300000277</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E74" s="23">
-        <v>72</v>
+        <v>207</v>
+      </c>
+      <c r="E74" s="22">
+        <v>71</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="23">
+        <v>300000202</v>
+      </c>
+      <c r="B75" s="23">
         <v>300164060</v>
       </c>
-      <c r="B75" s="26">
-        <v>300000455</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E75" s="22">
-        <v>73</v>
+      <c r="C75" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E75" s="23">
+        <v>72</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -3629,39 +3636,39 @@
         <v>300164060</v>
       </c>
       <c r="B76" s="26">
-        <v>300008439</v>
+        <v>300000455</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E76" s="23">
-        <v>74</v>
+        <v>213</v>
+      </c>
+      <c r="E76" s="22">
+        <v>73</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="23">
-        <v>300000202</v>
-      </c>
-      <c r="B77" s="23">
-        <v>300410262</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E77" s="22">
-        <v>75</v>
+        <v>300164060</v>
+      </c>
+      <c r="B77" s="26">
+        <v>300008439</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E77" s="23">
+        <v>74</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -3669,19 +3676,19 @@
         <v>300000202</v>
       </c>
       <c r="B78" s="23">
-        <v>300417317</v>
+        <v>300410262</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="E78" s="23">
-        <v>76</v>
+        <v>219</v>
+      </c>
+      <c r="E78" s="22">
+        <v>75</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -3689,19 +3696,19 @@
         <v>300000202</v>
       </c>
       <c r="B79" s="23">
-        <v>300263741</v>
+        <v>300417317</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E79" s="22">
-        <v>77</v>
+        <v>222</v>
+      </c>
+      <c r="E79" s="23">
+        <v>76</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -3709,57 +3716,59 @@
         <v>300000202</v>
       </c>
       <c r="B80" s="23">
-        <v>300000678</v>
+        <v>300263741</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E80" s="23">
-        <v>78</v>
+        <v>225</v>
+      </c>
+      <c r="E80" s="22">
+        <v>77</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="23">
+        <v>300000202</v>
+      </c>
+      <c r="B81" s="23">
         <v>300000678</v>
       </c>
-      <c r="B81" s="23">
-        <v>300000681</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E81" s="22">
-        <v>79</v>
+      <c r="C81" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E81" s="23">
+        <v>78</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="23">
-        <v>300000202</v>
+        <v>300000678</v>
       </c>
       <c r="B82" s="23">
-        <v>300125766</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="E82" s="23"/>
-      <c r="F82" t="s">
-        <v>489</v>
+        <v>300000681</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E82" s="22">
+        <v>79</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -3767,19 +3776,17 @@
         <v>300000202</v>
       </c>
       <c r="B83" s="23">
-        <v>300000401</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="E83" s="23">
-        <v>80</v>
-      </c>
-      <c r="F83" s="25" t="s">
-        <v>235</v>
+        <v>300125766</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E83" s="23"/>
+      <c r="F83" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -3787,189 +3794,191 @@
         <v>300000202</v>
       </c>
       <c r="B84" s="23">
-        <v>300000390</v>
+        <v>300000401</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="E84" s="22">
-        <v>81</v>
+        <v>234</v>
+      </c>
+      <c r="E84" s="23">
+        <v>80</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="23">
+        <v>300000202</v>
+      </c>
+      <c r="B85" s="23">
         <v>300000390</v>
       </c>
-      <c r="B85" s="23">
-        <v>300132656</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E85" s="23">
-        <v>82</v>
+      <c r="C85" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E85" s="22">
+        <v>81</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="23">
-        <v>300000202</v>
+        <v>300000390</v>
       </c>
       <c r="B86" s="23">
-        <v>300257640</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E86" s="22">
-        <v>83</v>
+        <v>300132656</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E86" s="23">
+        <v>82</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="23">
-        <v>300000201</v>
+        <v>300000202</v>
       </c>
       <c r="B87" s="23">
-        <v>300000705</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E87" s="23">
-        <v>84</v>
+        <v>300257640</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E87" s="22">
+        <v>83</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="23">
+        <v>300000201</v>
+      </c>
+      <c r="B88" s="23">
         <v>300000705</v>
       </c>
-      <c r="B88" s="23">
-        <v>300000742</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="E88" s="22"/>
-      <c r="F88" t="s">
-        <v>485</v>
+      <c r="C88" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E88" s="23">
+        <v>84</v>
+      </c>
+      <c r="F88" s="25" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="23">
+        <v>300000705</v>
+      </c>
+      <c r="B89" s="23">
         <v>300000742</v>
       </c>
-      <c r="B89" s="23">
-        <v>300000745</v>
-      </c>
-      <c r="C89" s="62" t="s">
-        <v>486</v>
-      </c>
-      <c r="D89" s="62" t="s">
-        <v>487</v>
-      </c>
+      <c r="C89" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="E89" s="22"/>
       <c r="F89" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="23">
+        <v>300000742</v>
+      </c>
+      <c r="B90" s="23">
         <v>300000745</v>
       </c>
-      <c r="B90" s="23">
+      <c r="C90" s="62" t="s">
+        <v>486</v>
+      </c>
+      <c r="D90" s="62" t="s">
+        <v>487</v>
+      </c>
+      <c r="F90" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="23">
+        <v>300000745</v>
+      </c>
+      <c r="B91" s="23">
         <v>300000750</v>
       </c>
-      <c r="C90" s="63" t="s">
+      <c r="C91" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="D90" s="63" t="s">
+      <c r="D91" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="E90" s="22">
+      <c r="E91" s="22">
         <v>85</v>
       </c>
-      <c r="F90" s="25" t="s">
+      <c r="F91" s="25" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="31">
+    <row r="92" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="31">
         <v>300000705</v>
       </c>
-      <c r="B91" s="31">
+      <c r="B92" s="31">
         <v>300387143</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D92" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="E91" s="23">
+      <c r="E92" s="23">
         <v>86</v>
       </c>
-      <c r="F91" s="30" t="s">
+      <c r="F92" s="30" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="23">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B93" s="23">
         <v>300004790</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C93" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D93" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E92" s="22">
+      <c r="E93" s="22">
         <v>87</v>
       </c>
-      <c r="F92" s="25" t="s">
+      <c r="F93" s="25" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="23">
-        <v>300004790</v>
-      </c>
-      <c r="B93" s="23">
-        <v>300007836</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="E93" s="23"/>
-      <c r="F93" s="26" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -3977,19 +3986,17 @@
         <v>300004790</v>
       </c>
       <c r="B94" s="23">
-        <v>300008057</v>
+        <v>300007836</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>257</v>
+        <v>467</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="E94" s="23">
-        <v>88</v>
-      </c>
-      <c r="F94" s="25" t="s">
-        <v>259</v>
+        <v>468</v>
+      </c>
+      <c r="E94" s="23"/>
+      <c r="F94" s="26" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -3997,19 +4004,19 @@
         <v>300004790</v>
       </c>
       <c r="B95" s="23">
-        <v>300008063</v>
+        <v>300008057</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="E95" s="22">
-        <v>89</v>
+        <v>258</v>
+      </c>
+      <c r="E95" s="23">
+        <v>88</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4017,39 +4024,39 @@
         <v>300004790</v>
       </c>
       <c r="B96" s="23">
-        <v>300006073</v>
+        <v>300008063</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E96" s="23">
-        <v>90</v>
+        <v>261</v>
+      </c>
+      <c r="E96" s="22">
+        <v>89</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="23">
+        <v>300004790</v>
+      </c>
+      <c r="B97" s="23">
         <v>300006073</v>
       </c>
-      <c r="B97" s="23">
-        <v>300006075</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E97" s="22">
-        <v>91</v>
+      <c r="C97" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E97" s="23">
+        <v>90</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4057,19 +4064,19 @@
         <v>300006073</v>
       </c>
       <c r="B98" s="23">
-        <v>300006084</v>
+        <v>300006075</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E98" s="23">
-        <v>92</v>
+        <v>267</v>
+      </c>
+      <c r="E98" s="22">
+        <v>91</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4080,168 +4087,170 @@
         <v>300006084</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E99" s="22">
-        <v>93</v>
+        <v>270</v>
+      </c>
+      <c r="E99" s="23">
+        <v>92</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="23">
         <v>300006073</v>
       </c>
-      <c r="B100" s="27">
-        <v>300006191</v>
-      </c>
-      <c r="C100" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="D100" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="E100" s="23">
-        <v>94</v>
+      <c r="B100" s="23">
+        <v>300006084</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E100" s="22">
+        <v>93</v>
       </c>
       <c r="F100" s="25" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="23">
-        <v>300004790</v>
+        <v>300006073</v>
       </c>
       <c r="B101" s="27">
-        <v>300006207</v>
-      </c>
-      <c r="C101" s="28" t="s">
-        <v>490</v>
-      </c>
-      <c r="D101" s="28" t="s">
-        <v>491</v>
-      </c>
-      <c r="E101" s="23"/>
-      <c r="F101" t="s">
-        <v>492</v>
+        <v>300006191</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="D101" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="E101" s="23">
+        <v>94</v>
+      </c>
+      <c r="F101" s="25" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="23">
         <v>300004790</v>
       </c>
-      <c r="B102" s="23">
-        <v>300263489</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="E102" s="22">
-        <v>95</v>
-      </c>
-      <c r="F102" s="25" t="s">
-        <v>280</v>
+      <c r="B102" s="27">
+        <v>300006207</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="D102" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="E102" s="23"/>
+      <c r="F102" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="23">
+        <v>300004790</v>
+      </c>
+      <c r="B103" s="23">
         <v>300263489</v>
       </c>
-      <c r="B103" s="23">
+      <c r="C103" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E103" s="22">
+        <v>95</v>
+      </c>
+      <c r="F103" s="25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="23">
+        <v>300263489</v>
+      </c>
+      <c r="B104" s="23">
         <v>300005903</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C104" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D104" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E103" s="23">
+      <c r="E104" s="23">
         <v>96</v>
       </c>
-      <c r="F103" s="25" t="s">
+      <c r="F104" s="25" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="31">
-        <v>300263489</v>
-      </c>
-      <c r="B104" s="31">
-        <v>300120364</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="E104" s="22">
-        <v>97</v>
-      </c>
-      <c r="F104" s="30" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="31">
+        <v>300263489</v>
+      </c>
+      <c r="B105" s="31">
         <v>300120364</v>
       </c>
-      <c r="B105" s="31">
-        <v>300007486</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="E105" s="22"/>
-      <c r="F105" t="s">
-        <v>509</v>
+      <c r="C105" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E105" s="22">
+        <v>97</v>
+      </c>
+      <c r="F105" s="30" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="31">
+        <v>300120364</v>
+      </c>
+      <c r="B106" s="31">
         <v>300007486</v>
       </c>
-      <c r="B106" s="30">
-        <v>300007501</v>
-      </c>
-      <c r="C106" s="64" t="s">
-        <v>501</v>
-      </c>
-      <c r="D106" s="64" t="s">
-        <v>503</v>
+      <c r="C106" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>502</v>
       </c>
       <c r="E106" s="22"/>
       <c r="F106" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="31">
-        <v>300120364</v>
-      </c>
-      <c r="B107" s="31">
-        <v>300007544</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>504</v>
+        <v>300007486</v>
+      </c>
+      <c r="B107" s="30">
+        <v>300007501</v>
+      </c>
+      <c r="C107" s="64" t="s">
+        <v>501</v>
+      </c>
+      <c r="D107" s="64" t="s">
+        <v>503</v>
       </c>
       <c r="E107" s="22"/>
       <c r="F107" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
@@ -4249,17 +4258,17 @@
         <v>300120364</v>
       </c>
       <c r="B108" s="31">
-        <v>300007595</v>
+        <v>300007544</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E108" s="22"/>
       <c r="F108" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
@@ -4267,17 +4276,17 @@
         <v>300120364</v>
       </c>
       <c r="B109" s="31">
-        <v>300004829</v>
+        <v>300007595</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E109" s="22"/>
       <c r="F109" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
@@ -4285,57 +4294,55 @@
         <v>300120364</v>
       </c>
       <c r="B110" s="31">
-        <v>300007590</v>
+        <v>300004829</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E110" s="22"/>
       <c r="F110" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="31">
+        <v>300120364</v>
+      </c>
+      <c r="B111" s="31">
+        <v>300007590</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="E111" s="22"/>
+      <c r="F111" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="31">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="31">
         <v>300263489</v>
       </c>
-      <c r="B111" s="23">
+      <c r="B112" s="23">
         <v>300005734</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D112" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E111" s="23">
+      <c r="E112" s="23">
         <v>98</v>
       </c>
-      <c r="F111" s="25" t="s">
+      <c r="F112" s="25" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="23">
-        <v>300004790</v>
-      </c>
-      <c r="B112" s="23">
-        <v>300387025</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E112" s="22">
-        <v>99</v>
-      </c>
-      <c r="F112" s="25" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -4343,207 +4350,207 @@
         <v>300004790</v>
       </c>
       <c r="B113" s="23">
-        <v>300006888</v>
+        <v>300387025</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E113" s="23">
-        <v>100</v>
+        <v>291</v>
+      </c>
+      <c r="E113" s="22">
+        <v>99</v>
       </c>
       <c r="F113" s="25" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="23">
+        <v>300004790</v>
+      </c>
+      <c r="B114" s="23">
         <v>300006888</v>
       </c>
-      <c r="B114" s="23">
-        <v>300006891</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="E114" s="23"/>
-      <c r="F114" t="s">
-        <v>495</v>
+      <c r="C114" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E114" s="23">
+        <v>100</v>
+      </c>
+      <c r="F114" s="25" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="23">
         <v>300006888</v>
       </c>
-      <c r="B115" s="29">
-        <v>300005072</v>
+      <c r="B115" s="23">
+        <v>300006891</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>296</v>
+        <v>493</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E115" s="22">
-        <v>101</v>
-      </c>
-      <c r="F115" s="29" t="s">
-        <v>298</v>
+        <v>494</v>
+      </c>
+      <c r="E115" s="23"/>
+      <c r="F115" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="23">
+        <v>300006888</v>
+      </c>
+      <c r="B116" s="29">
+        <v>300005072</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E116" s="22">
+        <v>101</v>
+      </c>
+      <c r="F116" s="29" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="23">
         <v>300004790</v>
       </c>
-      <c r="B116" s="23">
+      <c r="B117" s="23">
         <v>300006617</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D117" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E116" s="23">
+      <c r="E117" s="23">
         <v>102</v>
       </c>
-      <c r="F116" s="26" t="s">
+      <c r="F117" s="26" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B117" s="23">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B118" s="23">
         <v>300155846</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C118" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D118" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="E117" s="22">
+      <c r="E118" s="22">
         <v>103</v>
       </c>
-      <c r="F117" s="25" t="s">
+      <c r="F118" s="25" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="23">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="23">
         <v>300155846</v>
       </c>
-      <c r="B118" s="23">
+      <c r="B119" s="23">
         <v>300008591</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="C119" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="D118" s="12" t="s">
+      <c r="D119" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="E118" s="23">
+      <c r="E119" s="23">
         <v>104</v>
       </c>
-      <c r="F118" s="25" t="s">
+      <c r="F119" s="25" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B119" s="20">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B120" s="20">
         <v>300008072</v>
       </c>
-      <c r="C119" s="14" t="s">
+      <c r="C120" s="14" t="s">
         <v>516</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="D120" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="E119" s="22">
+      <c r="E120" s="22">
         <v>105</v>
       </c>
-      <c r="F119" s="25" t="s">
+      <c r="F120" s="25" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="27">
-        <v>300008072</v>
-      </c>
-      <c r="B120" s="20">
-        <v>300008304</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="E120" s="22"/>
-      <c r="F120" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="27">
         <v>300008072</v>
       </c>
-      <c r="B121" s="27">
-        <v>300008187</v>
+      <c r="B121" s="20">
+        <v>300008304</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E121" s="22"/>
       <c r="F121" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="27">
+        <v>300008072</v>
+      </c>
+      <c r="B122" s="27">
+        <v>300008187</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="E122" s="22"/>
+      <c r="F122" t="s">
         <v>520</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="23">
-        <v>300008072</v>
-      </c>
-      <c r="B122" s="23">
-        <v>300122438</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E122" s="23">
-        <v>106</v>
-      </c>
-      <c r="F122" s="25" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="23">
+        <v>300008072</v>
+      </c>
+      <c r="B123" s="23">
         <v>300122438</v>
       </c>
-      <c r="B123" s="23">
-        <v>300008217</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="E123" s="22">
-        <v>107</v>
+      <c r="C123" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E123" s="23">
+        <v>106</v>
       </c>
       <c r="F123" s="25" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -4551,39 +4558,39 @@
         <v>300122438</v>
       </c>
       <c r="B124" s="23">
-        <v>300265365</v>
+        <v>300008217</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E124" s="23">
-        <v>108</v>
+        <v>313</v>
+      </c>
+      <c r="E124" s="22">
+        <v>107</v>
       </c>
       <c r="F124" s="25" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="23">
+        <v>300122438</v>
+      </c>
+      <c r="B125" s="23">
         <v>300265365</v>
       </c>
-      <c r="B125" s="23">
-        <v>300386595</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="E125" s="22">
-        <v>109</v>
-      </c>
-      <c r="F125" s="26" t="s">
-        <v>320</v>
+      <c r="C125" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E125" s="23">
+        <v>108</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -4591,19 +4598,19 @@
         <v>300265365</v>
       </c>
       <c r="B126" s="23">
-        <v>300265367</v>
+        <v>300386595</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E126" s="23">
-        <v>110</v>
-      </c>
-      <c r="F126" s="25" t="s">
-        <v>323</v>
+        <v>319</v>
+      </c>
+      <c r="E126" s="22">
+        <v>109</v>
+      </c>
+      <c r="F126" s="26" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -4611,139 +4618,139 @@
         <v>300265365</v>
       </c>
       <c r="B127" s="23">
-        <v>300265366</v>
+        <v>300265367</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="E127" s="22">
-        <v>111</v>
+        <v>322</v>
+      </c>
+      <c r="E127" s="23">
+        <v>110</v>
       </c>
       <c r="F127" s="25" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="23">
-        <v>300008072</v>
+        <v>300265365</v>
       </c>
       <c r="B128" s="23">
-        <v>300008312</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E128" s="23">
-        <v>112</v>
+        <v>300265366</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E128" s="22">
+        <v>111</v>
       </c>
       <c r="F128" s="25" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="23">
+        <v>300008072</v>
+      </c>
+      <c r="B129" s="23">
         <v>300008312</v>
       </c>
-      <c r="B129" s="23">
+      <c r="C129" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E129" s="23">
+        <v>112</v>
+      </c>
+      <c r="F129" s="25" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="23">
+        <v>300008312</v>
+      </c>
+      <c r="B130" s="23">
         <v>300008321</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C130" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D130" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E129" s="22">
+      <c r="E130" s="22">
         <v>113</v>
       </c>
-      <c r="F129" s="25" t="s">
+      <c r="F130" s="25" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="27">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="27">
         <v>300008346</v>
       </c>
-      <c r="B130" s="20">
+      <c r="B131" s="20">
         <v>300132294</v>
       </c>
-      <c r="C130" s="49" t="s">
+      <c r="C131" s="49" t="s">
         <v>523</v>
       </c>
-      <c r="D130" s="21" t="s">
+      <c r="D131" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="E130" s="23">
+      <c r="E131" s="23">
         <v>114</v>
       </c>
-      <c r="F130" s="25" t="s">
+      <c r="F131" s="25" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="23">
-        <v>300132294</v>
-      </c>
-      <c r="B131" s="23">
-        <v>300266060</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="D131" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="E131" s="22">
-        <v>115</v>
-      </c>
-      <c r="F131" s="25" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="23">
+        <v>300132294</v>
+      </c>
+      <c r="B132" s="23">
         <v>300266060</v>
       </c>
-      <c r="B132" s="23">
-        <v>300386845</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="E132" s="23">
-        <v>116</v>
+      <c r="C132" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="D132" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="E132" s="22">
+        <v>115</v>
       </c>
       <c r="F132" s="25" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="23">
         <v>300266060</v>
       </c>
-      <c r="B133" s="29">
-        <v>300008850</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E133" s="22">
-        <v>117</v>
+      <c r="B133" s="23">
+        <v>300386845</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E133" s="23">
+        <v>116</v>
       </c>
       <c r="F133" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -4751,55 +4758,55 @@
         <v>300266060</v>
       </c>
       <c r="B134" s="29">
-        <v>300386846</v>
+        <v>300008850</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>477</v>
+        <v>340</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="E134" s="22"/>
-      <c r="F134" s="26" t="s">
-        <v>479</v>
+        <v>341</v>
+      </c>
+      <c r="E134" s="22">
+        <v>117</v>
+      </c>
+      <c r="F134" s="25" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="23">
         <v>300266060</v>
       </c>
-      <c r="B135" s="23">
-        <v>300008804</v>
+      <c r="B135" s="29">
+        <v>300386846</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="E135" s="22"/>
       <c r="F135" s="26" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="23">
         <v>300266060</v>
       </c>
-      <c r="B136" s="26">
-        <v>300128176</v>
-      </c>
-      <c r="C136" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="D136" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="E136" s="23">
-        <v>118</v>
-      </c>
-      <c r="F136" s="25" t="s">
-        <v>345</v>
+      <c r="B136" s="23">
+        <v>300008804</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="E136" s="22"/>
+      <c r="F136" s="26" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -4807,79 +4814,79 @@
         <v>300266060</v>
       </c>
       <c r="B137" s="26">
-        <v>300008760</v>
+        <v>300128176</v>
       </c>
       <c r="C137" s="34" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D137" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="E137" s="22">
-        <v>119</v>
+        <v>344</v>
+      </c>
+      <c r="E137" s="23">
+        <v>118</v>
       </c>
       <c r="F137" s="25" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="23">
         <v>300266060</v>
       </c>
-      <c r="B138" s="50">
-        <v>300386860</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="E138" s="23">
-        <v>120</v>
+      <c r="B138" s="26">
+        <v>300008760</v>
+      </c>
+      <c r="C138" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="D138" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="E138" s="22">
+        <v>119</v>
       </c>
       <c r="F138" s="25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="23">
         <v>300266060</v>
       </c>
-      <c r="B139" s="27">
-        <v>300008916</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="E139" s="22">
-        <v>121</v>
+      <c r="B139" s="50">
+        <v>300386860</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="E139" s="23">
+        <v>120</v>
       </c>
       <c r="F139" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="23">
         <v>300266060</v>
       </c>
-      <c r="B140" s="26">
-        <v>300387498</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="D140" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="E140" s="23">
-        <v>122</v>
+      <c r="B140" s="27">
+        <v>300008916</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E140" s="22">
+        <v>121</v>
       </c>
       <c r="F140" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -4887,19 +4894,19 @@
         <v>300266060</v>
       </c>
       <c r="B141" s="26">
-        <v>300387499</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="E141" s="22">
-        <v>123</v>
+        <v>300387498</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E141" s="23">
+        <v>122</v>
       </c>
       <c r="F141" s="25" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -4907,39 +4914,39 @@
         <v>300266060</v>
       </c>
       <c r="B142" s="26">
-        <v>300008777</v>
-      </c>
-      <c r="C142" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="D142" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="E142" s="23">
-        <v>124</v>
+        <v>300387499</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E142" s="22">
+        <v>123</v>
       </c>
       <c r="F142" s="25" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="23">
         <v>300266060</v>
       </c>
-      <c r="B143" s="23">
-        <v>300008791</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="E143" s="22">
-        <v>125</v>
+      <c r="B143" s="26">
+        <v>300008777</v>
+      </c>
+      <c r="C143" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="D143" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="E143" s="23">
+        <v>124</v>
       </c>
       <c r="F143" s="25" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -4947,19 +4954,19 @@
         <v>300266060</v>
       </c>
       <c r="B144" s="23">
-        <v>300386853</v>
+        <v>300008791</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="E144" s="23">
-        <v>126</v>
+        <v>365</v>
+      </c>
+      <c r="E144" s="22">
+        <v>125</v>
       </c>
       <c r="F144" s="25" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -4967,40 +4974,39 @@
         <v>300266060</v>
       </c>
       <c r="B145" s="23">
-        <v>300386831</v>
-      </c>
-      <c r="C145" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="D145" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="E145" s="22">
-        <v>127</v>
-      </c>
-      <c r="F145" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="G145" s="59"/>
+        <v>300386853</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="E145" s="23">
+        <v>126</v>
+      </c>
+      <c r="F145" s="25" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="23">
         <v>300266060</v>
       </c>
       <c r="B146" s="23">
-        <v>300008795</v>
+        <v>300386831</v>
       </c>
       <c r="C146" s="34" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D146" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="E146" s="23">
-        <v>128</v>
+        <v>371</v>
+      </c>
+      <c r="E146" s="22">
+        <v>127</v>
       </c>
       <c r="F146" s="30" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G146" s="59"/>
     </row>
@@ -5008,40 +5014,41 @@
       <c r="A147" s="23">
         <v>300266060</v>
       </c>
-      <c r="B147" s="26">
-        <v>300008686</v>
+      <c r="B147" s="23">
+        <v>300008795</v>
       </c>
       <c r="C147" s="34" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D147" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="E147" s="22">
-        <v>129</v>
-      </c>
-      <c r="F147" s="51" t="s">
-        <v>378</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="E147" s="23">
+        <v>128</v>
+      </c>
+      <c r="F147" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="G147" s="59"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="23">
         <v>300266060</v>
       </c>
       <c r="B148" s="26">
-        <v>300259572</v>
+        <v>300008686</v>
       </c>
       <c r="C148" s="34" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D148" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="E148" s="23">
-        <v>130</v>
-      </c>
-      <c r="F148" s="52" t="s">
-        <v>381</v>
+        <v>377</v>
+      </c>
+      <c r="E148" s="22">
+        <v>129</v>
+      </c>
+      <c r="F148" s="51" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -5049,19 +5056,19 @@
         <v>300266060</v>
       </c>
       <c r="B149" s="26">
-        <v>300008805</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="D149" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="E149" s="22">
-        <v>131</v>
-      </c>
-      <c r="F149" s="25" t="s">
-        <v>384</v>
+        <v>300259572</v>
+      </c>
+      <c r="C149" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="D149" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="E149" s="23">
+        <v>130</v>
+      </c>
+      <c r="F149" s="52" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -5069,19 +5076,19 @@
         <v>300266060</v>
       </c>
       <c r="B150" s="26">
-        <v>300132339</v>
-      </c>
-      <c r="C150" s="53" t="s">
-        <v>385</v>
-      </c>
-      <c r="D150" s="53" t="s">
-        <v>386</v>
-      </c>
-      <c r="E150" s="23">
-        <v>132</v>
+        <v>300008805</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="E150" s="22">
+        <v>131</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -5089,59 +5096,59 @@
         <v>300266060</v>
       </c>
       <c r="B151" s="26">
-        <v>300008761</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D151" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="E151" s="22">
-        <v>133</v>
+        <v>300132339</v>
+      </c>
+      <c r="C151" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="D151" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="E151" s="23">
+        <v>132</v>
       </c>
       <c r="F151" s="25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="23">
         <v>300266060</v>
       </c>
-      <c r="B152" s="23">
-        <v>300129031</v>
+      <c r="B152" s="26">
+        <v>300008761</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="E152" s="23">
-        <v>134</v>
+        <v>389</v>
+      </c>
+      <c r="E152" s="22">
+        <v>133</v>
       </c>
       <c r="F152" s="25" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="23">
         <v>300266060</v>
       </c>
-      <c r="B153" s="27">
-        <v>300008746</v>
-      </c>
-      <c r="C153" s="54" t="s">
-        <v>394</v>
-      </c>
-      <c r="D153" s="54" t="s">
-        <v>395</v>
-      </c>
-      <c r="E153" s="22">
-        <v>135</v>
+      <c r="B153" s="23">
+        <v>300129031</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E153" s="23">
+        <v>134</v>
       </c>
       <c r="F153" s="25" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -5149,77 +5156,77 @@
         <v>300266060</v>
       </c>
       <c r="B154" s="27">
-        <v>300379998</v>
+        <v>300008746</v>
       </c>
       <c r="C154" s="54" t="s">
-        <v>470</v>
+        <v>394</v>
       </c>
       <c r="D154" s="54" t="s">
-        <v>471</v>
-      </c>
-      <c r="E154" s="22"/>
-      <c r="F154" s="26" t="s">
-        <v>472</v>
+        <v>395</v>
+      </c>
+      <c r="E154" s="22">
+        <v>135</v>
+      </c>
+      <c r="F154" s="25" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="23">
         <v>300266060</v>
       </c>
-      <c r="B155" s="26">
-        <v>300386857</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="E155" s="23">
-        <v>136</v>
-      </c>
-      <c r="F155" s="25" t="s">
-        <v>398</v>
+      <c r="B155" s="27">
+        <v>300379998</v>
+      </c>
+      <c r="C155" s="54" t="s">
+        <v>470</v>
+      </c>
+      <c r="D155" s="54" t="s">
+        <v>471</v>
+      </c>
+      <c r="E155" s="22"/>
+      <c r="F155" s="26" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="23">
+        <v>300266060</v>
+      </c>
+      <c r="B156" s="26">
+        <v>300386857</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="E156" s="23">
+        <v>136</v>
+      </c>
+      <c r="F156" s="25" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="23">
         <v>300132294</v>
       </c>
-      <c r="B156" s="55">
+      <c r="B157" s="55">
         <v>300266059</v>
       </c>
-      <c r="C156" s="15" t="s">
+      <c r="C157" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="D156" s="15" t="s">
+      <c r="D157" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="E156" s="22">
+      <c r="E157" s="22">
         <v>137</v>
       </c>
-      <c r="F156" s="25" t="s">
+      <c r="F157" s="25" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="29">
-        <v>300266059</v>
-      </c>
-      <c r="B157" s="26">
-        <v>300008678</v>
-      </c>
-      <c r="C157" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="D157" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="E157" s="23">
-        <v>138</v>
-      </c>
-      <c r="F157" s="25" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -5227,39 +5234,39 @@
         <v>300266059</v>
       </c>
       <c r="B158" s="26">
+        <v>300008678</v>
+      </c>
+      <c r="C158" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="D158" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="E158" s="23">
+        <v>138</v>
+      </c>
+      <c r="F158" s="25" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="29">
+        <v>300266059</v>
+      </c>
+      <c r="B159" s="26">
         <v>300132312</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C159" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="D159" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="E158" s="22">
+      <c r="E159" s="22">
         <v>139</v>
       </c>
-      <c r="F158" s="25" t="s">
+      <c r="F159" s="25" t="s">
         <v>404</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="26">
-        <v>300132312</v>
-      </c>
-      <c r="B159" s="26">
-        <v>300008707</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="E159" s="23">
-        <v>140</v>
-      </c>
-      <c r="F159" s="25" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -5267,79 +5274,79 @@
         <v>300132312</v>
       </c>
       <c r="B160" s="26">
-        <v>300008736</v>
-      </c>
-      <c r="C160" s="37" t="s">
-        <v>408</v>
-      </c>
-      <c r="D160" s="37" t="s">
-        <v>409</v>
-      </c>
-      <c r="E160" s="22">
-        <v>141</v>
+        <v>300008707</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E160" s="23">
+        <v>140</v>
       </c>
       <c r="F160" s="25" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="26">
         <v>300132312</v>
       </c>
-      <c r="B161" s="23">
+      <c r="B161" s="26">
+        <v>300008736</v>
+      </c>
+      <c r="C161" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="D161" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="E161" s="22">
+        <v>141</v>
+      </c>
+      <c r="F161" s="25" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="26">
+        <v>300132312</v>
+      </c>
+      <c r="B162" s="23">
         <v>300008697</v>
       </c>
-      <c r="C161" s="37" t="s">
+      <c r="C162" s="37" t="s">
         <v>411</v>
       </c>
-      <c r="D161" s="37" t="s">
+      <c r="D162" s="37" t="s">
         <v>412</v>
       </c>
-      <c r="E161" s="23">
+      <c r="E162" s="23">
         <v>142</v>
       </c>
-      <c r="F161" s="25" t="s">
+      <c r="F162" s="25" t="s">
         <v>413</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="29">
-        <v>300266059</v>
-      </c>
-      <c r="B162" s="27">
-        <v>300008899</v>
-      </c>
-      <c r="C162" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="D162" s="34" t="s">
-        <v>415</v>
-      </c>
-      <c r="E162" s="22">
-        <v>143</v>
-      </c>
-      <c r="F162" s="25" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="29">
         <v>300266059</v>
       </c>
-      <c r="B163" s="26">
-        <v>300132316</v>
+      <c r="B163" s="27">
+        <v>300008899</v>
       </c>
       <c r="C163" s="34" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D163" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="E163" s="23">
-        <v>144</v>
+        <v>415</v>
+      </c>
+      <c r="E163" s="22">
+        <v>143</v>
       </c>
       <c r="F163" s="25" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -5347,79 +5354,79 @@
         <v>300266059</v>
       </c>
       <c r="B164" s="26">
-        <v>300132315</v>
+        <v>300132316</v>
       </c>
       <c r="C164" s="34" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D164" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="E164" s="22">
-        <v>145</v>
+        <v>418</v>
+      </c>
+      <c r="E164" s="23">
+        <v>144</v>
       </c>
       <c r="F164" s="25" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="29">
         <v>300266059</v>
       </c>
-      <c r="B165" s="27">
-        <v>300008835</v>
+      <c r="B165" s="26">
+        <v>300132315</v>
       </c>
       <c r="C165" s="34" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D165" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="E165" s="23">
-        <v>146</v>
+        <v>421</v>
+      </c>
+      <c r="E165" s="22">
+        <v>145</v>
       </c>
       <c r="F165" s="25" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="29">
         <v>300266059</v>
       </c>
-      <c r="B166" s="26">
-        <v>300008676</v>
+      <c r="B166" s="27">
+        <v>300008835</v>
       </c>
       <c r="C166" s="34" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D166" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="E166" s="22">
-        <v>147</v>
+        <v>424</v>
+      </c>
+      <c r="E166" s="23">
+        <v>146</v>
       </c>
       <c r="F166" s="25" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="29">
         <v>300266059</v>
       </c>
-      <c r="B167" s="27">
-        <v>300008679</v>
+      <c r="B167" s="26">
+        <v>300008676</v>
       </c>
       <c r="C167" s="34" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D167" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="E167" s="23">
-        <v>148</v>
+        <v>427</v>
+      </c>
+      <c r="E167" s="22">
+        <v>147</v>
       </c>
       <c r="F167" s="25" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -5427,19 +5434,19 @@
         <v>300266059</v>
       </c>
       <c r="B168" s="27">
-        <v>300387217</v>
+        <v>300008679</v>
       </c>
       <c r="C168" s="34" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D168" s="34" t="s">
-        <v>433</v>
-      </c>
-      <c r="E168" s="22">
-        <v>149</v>
+        <v>430</v>
+      </c>
+      <c r="E168" s="23">
+        <v>148</v>
       </c>
       <c r="F168" s="25" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -5447,19 +5454,19 @@
         <v>300266059</v>
       </c>
       <c r="B169" s="27">
-        <v>300266556</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="D169" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="E169" s="23">
-        <v>150</v>
+        <v>300387217</v>
+      </c>
+      <c r="C169" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="D169" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="E169" s="22">
+        <v>149</v>
       </c>
       <c r="F169" s="25" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -5467,39 +5474,39 @@
         <v>300266059</v>
       </c>
       <c r="B170" s="27">
-        <v>300266558</v>
-      </c>
-      <c r="C170" s="34" t="s">
-        <v>438</v>
-      </c>
-      <c r="D170" s="34" t="s">
-        <v>439</v>
-      </c>
-      <c r="E170" s="22">
-        <v>151</v>
+        <v>300266556</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="E170" s="23">
+        <v>150</v>
       </c>
       <c r="F170" s="25" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="29">
         <v>300266059</v>
       </c>
-      <c r="B171" s="26">
-        <v>300008687</v>
+      <c r="B171" s="27">
+        <v>300266558</v>
       </c>
       <c r="C171" s="34" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D171" s="34" t="s">
-        <v>442</v>
-      </c>
-      <c r="E171" s="23">
-        <v>152</v>
+        <v>439</v>
+      </c>
+      <c r="E171" s="22">
+        <v>151</v>
       </c>
       <c r="F171" s="25" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -5507,79 +5514,79 @@
         <v>300266059</v>
       </c>
       <c r="B172" s="26">
-        <v>300008694</v>
+        <v>300008687</v>
       </c>
       <c r="C172" s="34" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D172" s="34" t="s">
-        <v>445</v>
-      </c>
-      <c r="E172" s="22">
-        <v>153</v>
+        <v>442</v>
+      </c>
+      <c r="E172" s="23">
+        <v>152</v>
       </c>
       <c r="F172" s="25" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="29">
         <v>300266059</v>
       </c>
-      <c r="B173" s="27">
-        <v>300266571</v>
+      <c r="B173" s="26">
+        <v>300008694</v>
       </c>
       <c r="C173" s="34" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D173" s="34" t="s">
-        <v>448</v>
-      </c>
-      <c r="E173" s="23">
-        <v>154</v>
+        <v>445</v>
+      </c>
+      <c r="E173" s="22">
+        <v>153</v>
       </c>
       <c r="F173" s="25" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="29">
         <v>300266059</v>
       </c>
-      <c r="B174" s="56">
-        <v>300008680</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="D174" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="E174" s="22">
-        <v>155</v>
+      <c r="B174" s="27">
+        <v>300266571</v>
+      </c>
+      <c r="C174" s="34" t="s">
+        <v>447</v>
+      </c>
+      <c r="D174" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="E174" s="23">
+        <v>154</v>
       </c>
       <c r="F174" s="25" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="29">
         <v>300266059</v>
       </c>
-      <c r="B175" s="23">
-        <v>300387029</v>
+      <c r="B175" s="56">
+        <v>300008680</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="E175" s="23">
-        <v>156</v>
+        <v>451</v>
+      </c>
+      <c r="E175" s="22">
+        <v>155</v>
       </c>
       <c r="F175" s="25" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -5587,43 +5594,63 @@
         <v>300266059</v>
       </c>
       <c r="B176" s="23">
+        <v>300387029</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="E176" s="23">
+        <v>156</v>
+      </c>
+      <c r="F176" s="25" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="29">
+        <v>300266059</v>
+      </c>
+      <c r="B177" s="23">
         <v>300185707</v>
       </c>
-      <c r="C176" s="9" t="s">
+      <c r="C177" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="D176" s="9" t="s">
+      <c r="D177" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="E176" s="22">
+      <c r="E177" s="22">
         <v>157</v>
       </c>
-      <c r="F176" s="25" t="s">
+      <c r="F177" s="25" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="177" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="27">
+    <row r="178" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="27">
         <v>300008346</v>
       </c>
-      <c r="B177" s="41">
+      <c r="B178" s="41">
         <v>300008932</v>
       </c>
-      <c r="C177" s="57" t="s">
+      <c r="C178" s="57" t="s">
         <v>459</v>
       </c>
-      <c r="D177" s="57" t="s">
+      <c r="D178" s="57" t="s">
         <v>460</v>
       </c>
-      <c r="E177" s="23">
+      <c r="E178" s="23">
         <v>158</v>
       </c>
-      <c r="F177" s="30" t="s">
+      <c r="F178" s="30" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E178" s="23"/>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E179" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
